--- a/mdo_automation/src/test/resources/myp1_Reports/results.xlsx
+++ b/mdo_automation/src/test/resources/myp1_Reports/results.xlsx
@@ -3,17 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D30707B3-5926-479F-9760-495EBD569188}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\QA_Automation\mdo_automation\src\test\resources\myp1_Reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E6A95A-8099-417A-8568-BC525DA8A64B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23655" windowHeight="10575" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test_report_csv" sheetId="3" r:id="rId1"/>
-    <sheet name="test_report_excel" sheetId="4" r:id="rId2"/>
-    <sheet name="test_report_xml" sheetId="5" r:id="rId3"/>
+    <sheet name="test_report_csv" sheetId="17" r:id="rId1"/>
+    <sheet name="test_report_excel" sheetId="18" r:id="rId2"/>
+    <sheet name="test_report_xml" sheetId="19" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R28"/>
 </workbook>
 </file>
 
@@ -503,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1260,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,7 +2012,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
